--- a/cappex/CappexTemplate.xlsx
+++ b/cappex/CappexTemplate.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ppa299\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ppa299\Desktop\cappex\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B44E96CC-7488-4C13-84AB-5B43F24196E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{729EBEE8-CB18-42AB-AE9B-87A16071B7EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="16080" yWindow="5010" windowWidth="29040" windowHeight="15840" xr2:uid="{8235BBF3-379B-47BF-86EC-2EE84133B27E}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="47">
   <si>
     <t>Inquiry Product</t>
   </si>
@@ -144,9 +144,6 @@
   </si>
   <si>
     <t>Char</t>
-  </si>
-  <si>
-    <t>Possible Values</t>
   </si>
   <si>
     <t>"Cappex" 
@@ -177,6 +174,12 @@
   </si>
   <si>
     <t>Last Name and Email Address are required fields</t>
+  </si>
+  <si>
+    <t>not-null</t>
+  </si>
+  <si>
+    <t>Expected Values</t>
   </si>
 </sst>
 </file>
@@ -561,7 +564,7 @@
   <dimension ref="A1:F28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -584,7 +587,7 @@
         <v>31</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>29</v>
@@ -604,10 +607,10 @@
         <v>32</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -620,6 +623,9 @@
       <c r="C3" t="s">
         <v>33</v>
       </c>
+      <c r="E3" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="4" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4">
@@ -631,8 +637,11 @@
       <c r="C4" s="2" t="s">
         <v>33</v>
       </c>
+      <c r="E4" t="s">
+        <v>45</v>
+      </c>
       <c r="F4" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -645,8 +654,11 @@
       <c r="C5" s="2" t="s">
         <v>33</v>
       </c>
+      <c r="E5" t="s">
+        <v>45</v>
+      </c>
       <c r="F5" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -660,7 +672,7 @@
         <v>34</v>
       </c>
       <c r="E6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -674,10 +686,10 @@
         <v>35</v>
       </c>
       <c r="D7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -688,10 +700,10 @@
         <v>6</v>
       </c>
       <c r="C8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -702,10 +714,10 @@
         <v>7</v>
       </c>
       <c r="C9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -716,10 +728,10 @@
         <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -733,7 +745,7 @@
         <v>32</v>
       </c>
       <c r="E11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -747,7 +759,7 @@
         <v>32</v>
       </c>
       <c r="E12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -758,10 +770,10 @@
         <v>11</v>
       </c>
       <c r="C13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -775,7 +787,7 @@
         <v>32</v>
       </c>
       <c r="E14" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -786,10 +798,10 @@
         <v>13</v>
       </c>
       <c r="C15" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -803,7 +815,7 @@
         <v>33</v>
       </c>
       <c r="E16" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -817,7 +829,7 @@
         <v>34</v>
       </c>
       <c r="E17" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -828,10 +840,10 @@
         <v>16</v>
       </c>
       <c r="C18" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E18" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -842,10 +854,10 @@
         <v>21</v>
       </c>
       <c r="C19" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E19" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
@@ -856,10 +868,10 @@
         <v>25</v>
       </c>
       <c r="C20" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E20" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -870,10 +882,10 @@
         <v>26</v>
       </c>
       <c r="C21" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E21" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
@@ -884,10 +896,10 @@
         <v>22</v>
       </c>
       <c r="C22" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E22" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
@@ -898,10 +910,10 @@
         <v>23</v>
       </c>
       <c r="C23" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E23" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="24" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -912,10 +924,10 @@
         <v>24</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="25" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -926,10 +938,10 @@
         <v>17</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="26" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -940,10 +952,10 @@
         <v>18</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="27" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -954,10 +966,10 @@
         <v>19</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="28" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -968,10 +980,10 @@
         <v>20</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
